--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-practitionerrole.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-practitionerrole.xlsx
@@ -615,7 +615,7 @@
 人は複数の役割を持つ場合がある。
 医師、看護職員、薬剤師、放射線技師、情報職員といった職種を格納する。
 以下のコード表を作成する。
-http://jpfhir.jp/fhir/Common/CodeSystem/JP_PractitionerRole_CS
+http://jpfhir.jp/fhir/core/CodeSystem/JP_PractitionerRole_CS
 SS-MIX2ではJHSR004 医療従事者の職種コードを採用
 コード 名称
 DR-01 依頼医師
@@ -631,7 +631,7 @@
 practitionerがどのような権限を持っているのかを知る必要がある - 何ができるのか？</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedurePerformerRole_VS</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -653,7 +653,7 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 PractitionerRole.codeに格納した職種の専門領域を格納する。
 以下のコード表を作成する。
-http://jpfhir.jp/fhir/Common/CodeSystem/JP_PractionerRole_practicecodes</t>
+http://jpfhir.jp/fhir/core/CodeSystem/JP_PractionerRole_practicecodes</t>
   </si>
   <si>
     <t>Specific specialty associated with the agency.</t>
@@ -1267,7 +1267,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="43.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.07421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
